--- a/data/trans_bre/P23_11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_11_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,37 +657,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>187,28%</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>235,21%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>54,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-22,98%</t>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-18,43%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-23,06%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-48,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,64</t>
+          <t>-0,98; 5,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; -0,65</t>
+          <t>-6,1; -0,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,65</t>
+          <t>-2,02; 2,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 7,32</t>
+          <t>-5,57; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-9,72; 7,26</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 3,43</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-89,03; 337,69</t>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-96,99; 311,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,81</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>822,69%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>451,19%</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>855,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>394,49%</t>
+          <t>484,08%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>199,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>394,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-28,31%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 10,51</t>
+          <t>1,87; 9,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 5,33</t>
+          <t>0,39; 5,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 6,13</t>
+          <t>-9,29; 6,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 13,64</t>
+          <t>-0,24; 8,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>1,97; 14,12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 3,96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-69,41; 448,68</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; —</t>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-73,33; 373,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,94; 1221,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,31; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-73,86; 107,32</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,23</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-21,73%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>114,97%</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>193,22%</t>
+          <t>-26,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>126,21%</t>
+          <t>107,36%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>196,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>207,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>126,15%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 3,21</t>
+          <t>-9,99; 2,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,63</t>
+          <t>-1,14; 6,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 8,18</t>
+          <t>1,79; 8,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,8</t>
+          <t>0,99; 8,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,84; 96,53</t>
+          <t>1,02; 10,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 547,58</t>
+          <t>-5,71; 10,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,75; 588,9</t>
+          <t>-74,56; 75,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 419,71</t>
+          <t>-42,89; 405,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31,25; 596,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 728,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 417,13</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-35,95; 149,86</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>110,33%</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>105,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>79,49%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49,15%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,24</t>
+          <t>-2,82; 10,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 8,47</t>
+          <t>-1,83; 8,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,77</t>
+          <t>-0,89; 8,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 6,15</t>
+          <t>-9,75; 5,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 370,72</t>
+          <t>-7,16; 6,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 260,11</t>
+          <t>-1,0; 10,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 252,24</t>
+          <t>-37,49; 358,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 85,22</t>
+          <t>-27,91; 269,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 262,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-61,87; 113,75</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-47,18; 99,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 157,09</t>
         </is>
       </c>
     </row>
@@ -1025,37 +1217,57 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>1,86</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>136,02%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>165,38%</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>133,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>165,62%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31,37%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,32</t>
+          <t>0,11; 8,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 7,3</t>
+          <t>0,77; 8,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,04</t>
+          <t>-4,42; 5,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 7,88</t>
+          <t>-5,47; 7,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 641,52</t>
+          <t>-5,22; 8,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 675,91</t>
+          <t>-5,0; 8,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,46; 226,19</t>
+          <t>-18,83; 526,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,59; 104,83</t>
+          <t>-4,69; 720,66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-67,61; 242,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-53,18; 147,92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-35,66; 112,69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-34,92; 103,8</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>154,32%</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,12%</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>376,7%</t>
+          <t>257,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>-35,73%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>383,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>107,45%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>173,75%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 9,53</t>
+          <t>1,37; 12,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 1,83</t>
+          <t>-5,77; 1,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,25</t>
+          <t>0,81; 6,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 8,87</t>
+          <t>-2,34; 8,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 814,17</t>
+          <t>-4,34; 9,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 97,8</t>
+          <t>-0,25; 11,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; —</t>
+          <t>2,39; 1435,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,41; 294,75</t>
+          <t>-79,0; 106,35</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,61; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-80,33; 892,87</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-51,25; 313,79</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; 774,24</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1492,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1235,27 +1507,47 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>82,49%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>51,08%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38,84%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,07</t>
+          <t>0,96; 5,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,23</t>
+          <t>0,31; 3,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,42</t>
+          <t>0,47; 4,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,21</t>
+          <t>-0,08; 4,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 201,09</t>
+          <t>-0,07; 5,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,63; 146,18</t>
+          <t>-1,74; 4,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 179,87</t>
+          <t>13,95; 222,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 97,88</t>
+          <t>5,6; 153,82</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 166,9</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 130,29</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 106,19</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-16,21; 62,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
